--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656534.3658811497</v>
+        <v>722347.8958440775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298023</v>
+        <v>404724.2260944798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11762410.58428956</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7811360.157798744</v>
+        <v>7804018.221892332</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V3" t="n">
-        <v>230.8712300019315</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>218.2545356023573</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.81126034573501</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393337</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245153</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772187</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>88.33965092741637</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>126.178546008671</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>26.51572092966548</v>
       </c>
       <c r="H13" t="n">
-        <v>48.39989579700799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393335</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19.59752102332939</v>
+        <v>71.76392116890673</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>68.15881602411606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>114.874728249016</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772187</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.79628492789452</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>194.0496263582878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>386.233080726429</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>67.62176764444239</v>
       </c>
       <c r="S17" t="n">
-        <v>59.80118211677488</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>192.9253083542187</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>211.0323528210382</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38.21363194781016</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>39.76777325376366</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>119.0246026812321</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>269.7742530751877</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>67.62176764444239</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772187</v>
+        <v>136.9024426048593</v>
       </c>
       <c r="T21" t="n">
-        <v>69.05354991342217</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>74.80230658555577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>51.79628492789446</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>301.0683539834542</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.82290122762522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.264003285459112</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>123.5769048111875</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>148.725415593653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8100533453326</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>232.3056710074059</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>234.6951566807711</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>276.2983106514751</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>55.84003136202637</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>113.9495684430214</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>157.8381208675084</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.67884460201108</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>255.2442911513449</v>
       </c>
       <c r="C35" t="n">
-        <v>64.46452822738348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>107.1778636154932</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>334.5817096732196</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>25.25292425643923</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.82953530753672</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>79.23799695816379</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>411.5721485950816</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.55483850657</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.588948023153</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>52.82290122762522</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.34212692452513</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>9.461970681989259</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>401.4607451716973</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>158.0119685275972</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>158.0119685275972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>471.3355526126313</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4941,13 +4941,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.448730553856</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C11" t="n">
-        <v>1448.448730553856</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D11" t="n">
-        <v>1090.183031947105</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.919132607979</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F11" t="n">
-        <v>633.9332278183715</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4557842448272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
-        <v>42.187876716001</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856225</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953282</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803405</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.88319261382</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300942</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170706</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.39383580005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.10049212941</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.10049212941</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1801.21738582397</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1801.21738582397</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1801.21738582397</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1448.448730553856</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1448.448730553856</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y11" t="n">
-        <v>1448.448730553856</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555.4799414129038</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C12" t="n">
-        <v>381.0269121317768</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D12" t="n">
-        <v>381.0269121317768</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E12" t="n">
-        <v>221.7894571263213</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F12" t="n">
-        <v>221.7894571263213</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>42.187876716001</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147156</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284375</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448787</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129934</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599074</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576444</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875403</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.39383580005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.39383580005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237203</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T12" t="n">
-        <v>1856.884246603449</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U12" t="n">
-        <v>1628.696542363403</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="V12" t="n">
-        <v>1393.54443413166</v>
+        <v>805.1689652841649</v>
       </c>
       <c r="W12" t="n">
-        <v>1139.307077403459</v>
+        <v>550.9316085559633</v>
       </c>
       <c r="X12" t="n">
-        <v>931.4555771979258</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.6952784329719</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.9666078472528</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C13" t="n">
-        <v>237.9666078472528</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D13" t="n">
-        <v>237.9666078472528</v>
+        <v>48.87607759080004</v>
       </c>
       <c r="E13" t="n">
-        <v>237.9666078472528</v>
+        <v>48.87607759080004</v>
       </c>
       <c r="F13" t="n">
-        <v>91.0766603493424</v>
+        <v>48.87607759080004</v>
       </c>
       <c r="G13" t="n">
-        <v>91.0766603493424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>42.187876716001</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>42.187876716001</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>42.187876716001</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701792</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081029</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053803</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503599</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871614</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842134</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>237.9666078472528</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X13" t="n">
-        <v>237.9666078472528</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.9666078472528</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1615.705176284148</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="C14" t="n">
-        <v>1615.705176284148</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="D14" t="n">
-        <v>1257.439477677397</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="E14" t="n">
-        <v>871.6512250791529</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="F14" t="n">
-        <v>460.6653202895453</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="G14" t="n">
-        <v>42.187876716001</v>
+        <v>378.465233626274</v>
       </c>
       <c r="H14" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I14" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953282</v>
+        <v>415.1943883367683</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803406</v>
+        <v>799.8264852341948</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.88319261382</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170707</v>
+        <v>2049.152696194595</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.10049212941</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S14" t="n">
-        <v>2002.305016348269</v>
+        <v>2382.813182683692</v>
       </c>
       <c r="T14" t="n">
-        <v>2002.305016348269</v>
+        <v>2163.253337170529</v>
       </c>
       <c r="U14" t="n">
-        <v>2002.305016348269</v>
+        <v>1909.474643920827</v>
       </c>
       <c r="V14" t="n">
-        <v>2002.305016348269</v>
+        <v>1909.474643920827</v>
       </c>
       <c r="W14" t="n">
-        <v>2002.305016348269</v>
+        <v>1556.705988650713</v>
       </c>
       <c r="X14" t="n">
-        <v>2002.305016348269</v>
+        <v>1183.240230389633</v>
       </c>
       <c r="Y14" t="n">
-        <v>2002.305016348269</v>
+        <v>1183.240230389633</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>444.7256499158321</v>
+        <v>794.3005707992631</v>
       </c>
       <c r="C15" t="n">
-        <v>270.272620634705</v>
+        <v>619.8475415181362</v>
       </c>
       <c r="D15" t="n">
-        <v>201.4253317214565</v>
+        <v>470.9131318568849</v>
       </c>
       <c r="E15" t="n">
-        <v>42.187876716001</v>
+        <v>311.6756768514294</v>
       </c>
       <c r="F15" t="n">
-        <v>42.187876716001</v>
+        <v>165.1411188783144</v>
       </c>
       <c r="G15" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="H15" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I15" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147157</v>
+        <v>87.58667996218855</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284375</v>
+        <v>324.9372005630953</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448787</v>
+        <v>705.4886626713512</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.782828129934</v>
+        <v>1201.553491139128</v>
       </c>
       <c r="N15" t="n">
-        <v>1589.455839519191</v>
+        <v>1726.454692916939</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.506473496561</v>
+        <v>2140.221066519055</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875403</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237203</v>
+        <v>2295.028580901531</v>
       </c>
       <c r="T15" t="n">
-        <v>1746.129955106377</v>
+        <v>2095.694235349245</v>
       </c>
       <c r="U15" t="n">
-        <v>1517.942250866331</v>
+        <v>1867.517171749762</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.790142634588</v>
+        <v>1632.365063518019</v>
       </c>
       <c r="W15" t="n">
-        <v>1028.552785906387</v>
+        <v>1378.127706789818</v>
       </c>
       <c r="X15" t="n">
-        <v>820.701285700854</v>
+        <v>1170.276206584285</v>
       </c>
       <c r="Y15" t="n">
-        <v>612.9409869359001</v>
+        <v>962.5159078193312</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.187876716001</v>
+        <v>101.4255195640503</v>
       </c>
       <c r="C16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="D16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="E16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="F16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="G16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="H16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J16" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701792</v>
+        <v>94.61295399245039</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081029</v>
+        <v>208.3725712297703</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053803</v>
+        <v>338.7052604257293</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503599</v>
+        <v>471.3735460023454</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871614</v>
+        <v>577.8978852021174</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="U16" t="n">
-        <v>238.1976003102312</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="V16" t="n">
-        <v>238.1976003102312</v>
+        <v>390.8426896010109</v>
       </c>
       <c r="W16" t="n">
-        <v>42.187876716001</v>
+        <v>101.4255195640503</v>
       </c>
       <c r="X16" t="n">
-        <v>42.187876716001</v>
+        <v>101.4255195640503</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.187876716001</v>
+        <v>101.4255195640503</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1101.871081502027</v>
+        <v>1226.378138454744</v>
       </c>
       <c r="C17" t="n">
-        <v>732.9085645616155</v>
+        <v>857.4156215143328</v>
       </c>
       <c r="D17" t="n">
-        <v>374.642865954865</v>
+        <v>857.4156215143328</v>
       </c>
       <c r="E17" t="n">
-        <v>374.642865954865</v>
+        <v>857.4156215143328</v>
       </c>
       <c r="F17" t="n">
-        <v>374.642865954865</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G17" t="n">
-        <v>374.642865954865</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="H17" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I17" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856224</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953281</v>
+        <v>415.1943883367685</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803405</v>
+        <v>799.826485234195</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.88319261382</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300942</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170706</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.39383580005</v>
+        <v>2386.997176142747</v>
       </c>
       <c r="S17" t="n">
-        <v>2048.988601338661</v>
+        <v>2206.003582293109</v>
       </c>
       <c r="T17" t="n">
-        <v>1828.105495033221</v>
+        <v>1986.443736779946</v>
       </c>
       <c r="U17" t="n">
-        <v>1828.105495033221</v>
+        <v>1986.443736779946</v>
       </c>
       <c r="V17" t="n">
-        <v>1828.105495033221</v>
+        <v>1986.443736779946</v>
       </c>
       <c r="W17" t="n">
-        <v>1475.336839763107</v>
+        <v>1986.443736779946</v>
       </c>
       <c r="X17" t="n">
-        <v>1101.871081502027</v>
+        <v>1612.977978518866</v>
       </c>
       <c r="Y17" t="n">
-        <v>1101.871081502027</v>
+        <v>1612.977978518866</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>809.5322608961482</v>
+        <v>816.2886862824824</v>
       </c>
       <c r="C18" t="n">
-        <v>635.0792316150212</v>
+        <v>641.8356570013555</v>
       </c>
       <c r="D18" t="n">
-        <v>486.1448219537698</v>
+        <v>492.9012473401042</v>
       </c>
       <c r="E18" t="n">
-        <v>326.9073669483143</v>
+        <v>333.6637923346487</v>
       </c>
       <c r="F18" t="n">
-        <v>180.3728089751993</v>
+        <v>187.1292343615337</v>
       </c>
       <c r="G18" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="H18" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I18" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J18" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="K18" t="n">
-        <v>162.827138532967</v>
+        <v>167.0117154765662</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9597813494082</v>
+        <v>547.5631775848221</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344635</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523721</v>
+        <v>1568.52920783041</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501091</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.39383580005</v>
+        <v>2297.376506858685</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S18" t="n">
-        <v>2109.39383580005</v>
+        <v>2295.028580901531</v>
       </c>
       <c r="T18" t="n">
-        <v>1909.407573669224</v>
+        <v>2095.694235349245</v>
       </c>
       <c r="U18" t="n">
-        <v>1714.533524826579</v>
+        <v>1867.517171749762</v>
       </c>
       <c r="V18" t="n">
-        <v>1479.381416594837</v>
+        <v>1654.353179001239</v>
       </c>
       <c r="W18" t="n">
-        <v>1225.144059866635</v>
+        <v>1400.115822273037</v>
       </c>
       <c r="X18" t="n">
-        <v>1017.292559661102</v>
+        <v>1192.264322067504</v>
       </c>
       <c r="Y18" t="n">
-        <v>809.5322608961482</v>
+        <v>984.5040233025504</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.78750494611228</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="C19" t="n">
-        <v>80.78750494611228</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="D19" t="n">
-        <v>80.78750494611228</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="E19" t="n">
-        <v>80.78750494611228</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="F19" t="n">
-        <v>80.78750494611228</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="G19" t="n">
-        <v>80.78750494611228</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="H19" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I19" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J19" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701792</v>
+        <v>94.61295399245039</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081029</v>
+        <v>208.3725712297703</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053803</v>
+        <v>338.7052604257293</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503599</v>
+        <v>471.3735460023454</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871614</v>
+        <v>577.8978852021174</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="S19" t="n">
-        <v>309.0801251806051</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="T19" t="n">
-        <v>80.78750494611228</v>
+        <v>417.8139201001489</v>
       </c>
       <c r="U19" t="n">
-        <v>80.78750494611228</v>
+        <v>417.8139201001489</v>
       </c>
       <c r="V19" t="n">
-        <v>80.78750494611228</v>
+        <v>417.8139201001489</v>
       </c>
       <c r="W19" t="n">
-        <v>80.78750494611228</v>
+        <v>417.8139201001489</v>
       </c>
       <c r="X19" t="n">
-        <v>80.78750494611228</v>
+        <v>377.6444521670543</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.78750494611228</v>
+        <v>377.6444521670543</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>959.1889054990368</v>
+        <v>1048.833500916559</v>
       </c>
       <c r="C20" t="n">
-        <v>838.9620341038528</v>
+        <v>679.8709839761475</v>
       </c>
       <c r="D20" t="n">
-        <v>838.9620341038528</v>
+        <v>321.605285369397</v>
       </c>
       <c r="E20" t="n">
-        <v>453.1737815056085</v>
+        <v>321.605285369397</v>
       </c>
       <c r="F20" t="n">
-        <v>42.187876716001</v>
+        <v>321.605285369397</v>
       </c>
       <c r="G20" t="n">
-        <v>42.187876716001</v>
+        <v>321.605285369397</v>
       </c>
       <c r="H20" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="I20" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>147.2929132168165</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953282</v>
+        <v>415.1943883367687</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803406</v>
+        <v>799.8264852341949</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.88319261382</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300942</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170706</v>
+        <v>2049.152696194595</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2325.213548478441</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.39383580005</v>
+        <v>2386.997176142747</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.39383580005</v>
+        <v>2206.003582293109</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.39383580005</v>
+        <v>1986.443736779946</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.39383580005</v>
+        <v>1732.665043530244</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.39383580005</v>
+        <v>1401.602156186673</v>
       </c>
       <c r="W20" t="n">
-        <v>2109.39383580005</v>
+        <v>1048.833500916559</v>
       </c>
       <c r="X20" t="n">
-        <v>1735.92807753897</v>
+        <v>1048.833500916559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1345.788745563158</v>
+        <v>1048.833500916559</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>743.1761885481176</v>
+        <v>816.2886862824824</v>
       </c>
       <c r="C21" t="n">
-        <v>743.1761885481176</v>
+        <v>641.8356570013555</v>
       </c>
       <c r="D21" t="n">
-        <v>594.2417788868663</v>
+        <v>492.9012473401042</v>
       </c>
       <c r="E21" t="n">
-        <v>435.0043238814109</v>
+        <v>333.6637923346487</v>
       </c>
       <c r="F21" t="n">
-        <v>288.4697659082958</v>
+        <v>187.1292343615337</v>
       </c>
       <c r="G21" t="n">
-        <v>150.2848336490975</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="H21" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="I21" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="J21" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="K21" t="n">
-        <v>42.187876716001</v>
+        <v>167.0117154765667</v>
       </c>
       <c r="L21" t="n">
-        <v>388.3205195324423</v>
+        <v>547.5631775848226</v>
       </c>
       <c r="M21" t="n">
-        <v>844.2202093174976</v>
+        <v>1043.6280060526</v>
       </c>
       <c r="N21" t="n">
-        <v>1327.893220706755</v>
+        <v>1568.52920783041</v>
       </c>
       <c r="O21" t="n">
-        <v>1703.943854684125</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P21" t="n">
-        <v>1988.754573983084</v>
+        <v>2297.376506858685</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.39383580005</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237203</v>
+        <v>2317.016696384751</v>
       </c>
       <c r="T21" t="n">
-        <v>1876.365156718595</v>
+        <v>2117.682350832464</v>
       </c>
       <c r="U21" t="n">
-        <v>1648.177452478549</v>
+        <v>1889.505287232981</v>
       </c>
       <c r="V21" t="n">
-        <v>1413.025344246806</v>
+        <v>1654.353179001239</v>
       </c>
       <c r="W21" t="n">
-        <v>1158.787987518604</v>
+        <v>1400.115822273037</v>
       </c>
       <c r="X21" t="n">
-        <v>950.9364873130714</v>
+        <v>1192.264322067504</v>
       </c>
       <c r="Y21" t="n">
-        <v>743.1761885481176</v>
+        <v>984.5040233025504</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="C22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="D22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="E22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="F22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="G22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="H22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="I22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="J22" t="n">
-        <v>42.187876716001</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701792</v>
+        <v>94.6129539924504</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081029</v>
+        <v>208.3725712297703</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053803</v>
+        <v>338.7052604257293</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503599</v>
+        <v>471.3735460023454</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871614</v>
+        <v>577.8978852021174</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842134</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="S22" t="n">
-        <v>451.825892444258</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="T22" t="n">
-        <v>451.825892444258</v>
+        <v>645.5271778068977</v>
       </c>
       <c r="U22" t="n">
-        <v>451.825892444258</v>
+        <v>593.2076980817518</v>
       </c>
       <c r="V22" t="n">
-        <v>451.825892444258</v>
+        <v>338.5232098758649</v>
       </c>
       <c r="W22" t="n">
-        <v>451.825892444258</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="X22" t="n">
-        <v>223.8363415462407</v>
+        <v>49.10603983890429</v>
       </c>
       <c r="Y22" t="n">
-        <v>223.8363415462407</v>
+        <v>49.10603983890429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>882.8926947117851</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117851</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117851</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>358.0524302885</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982752</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>882.8926947117851</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,31 +6080,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.8626623130036</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D25" t="n">
         <v>348.7460229006679</v>
@@ -6135,19 +6135,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6186,13 +6186,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>498.8626623130036</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1215.960741127172</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C26" t="n">
-        <v>1215.960741127172</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D26" t="n">
-        <v>857.6950425204218</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>923.9266662611117</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1366.188433646014</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1215.960741127172</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629041</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629041</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D28" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>209.3066720681752</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>209.3066720681752</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>1540.921096014692</v>
       </c>
       <c r="C29" t="n">
-        <v>1171.95857907428</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D29" t="n">
-        <v>813.6928804675297</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E29" t="n">
-        <v>813.6928804675297</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>813.6928804675297</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6554,31 +6554,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.8329293182748</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1331.061315312042</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>631.3392352428932</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573122</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>1331.061315312042</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y32" t="n">
-        <v>1331.061315312042</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.73979454966857</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>65.73979454966857</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>65.73979454966857</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.73979454966857</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>863.1126181035243</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.851790143458</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y35" t="n">
-        <v>1249.712458167646</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="36">
@@ -7040,7 +7040,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073964</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
         <v>713.8062203571349</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C40" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D40" t="n">
-        <v>396.3638799638587</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E40" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1348.719328075852</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>796.8671448096966</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>796.8671448096966</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.324418312743</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.858660051663</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y41" t="n">
-        <v>1348.719328075852</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7496,19 +7496,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9274674422038</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7605,16 +7605,16 @@
         <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7657,7 +7657,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>882.8926947117851</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
@@ -7739,13 +7739,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T46" t="n">
-        <v>450.8687156462887</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U46" t="n">
-        <v>450.8687156462887</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V46" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W46" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>197.9140804848495</v>
+        <v>266.0730132741479</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>99.51991480487854</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>37.03447478123309</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.55659572925421</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033756</v>
+        <v>60.65058134701563</v>
       </c>
       <c r="K18" t="n">
-        <v>172.4310032246999</v>
+        <v>143.8138784638464</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509477</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033756</v>
+        <v>60.65058134701563</v>
       </c>
       <c r="K21" t="n">
-        <v>50.57316300554233</v>
+        <v>143.8138784638469</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.8536593442525</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V3" t="n">
-        <v>1.929357147493789</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>33.09111730547923</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>337.1191097265267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094345</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207141</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>109.6467485821011</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>106.6220411407542</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,28 +23421,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.537897457236</v>
+        <v>141.4121053356932</v>
       </c>
       <c r="H13" t="n">
-        <v>109.7989667159239</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>61.3262897002242</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385102</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.62176764444239</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4056154145954</v>
+        <v>107.4197367422352</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>79.28624954052269</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>21.76823432838712</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245153</v>
+        <v>65.27666136637441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.6035055920714</v>
+        <v>56.66199767592521</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>115.4505361707333</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022419</v>
+        <v>51.83555490345135</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385102</v>
+        <v>36.98188228487137</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>92.47337197830316</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>20.64296501528241</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393337</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>126.2019543211499</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245153</v>
+        <v>65.27666136637441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207141</v>
+        <v>56.66199767592521</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772187</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>32.98051884342689</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>21.76823432838705</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>119.9852305651217</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>61.3262897002242</v>
+        <v>51.83555490345135</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385102</v>
+        <v>36.98188228487137</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.9418821352735</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>246.2482890897755</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>56.29134877430829</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393335</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245153</v>
+        <v>65.27666136637441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.6035055920714</v>
+        <v>56.66199767592521</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>21.76823432838651</v>
       </c>
       <c r="T21" t="n">
-        <v>128.9328495960953</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022419</v>
+        <v>51.83555490345135</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385102</v>
+        <v>36.98188228487137</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>141.3183095910163</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>234.4907087141462</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>112.7158160373407</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.4150374284284</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>285.2589950511319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>22.82750184132345</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>283.2991409305239</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.5125230624006</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>13.49974891371826</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457184</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>147.2352133914906</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>137.4858593693199</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>123.9919488199109</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>201.4394243108031</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>251.3233233279862</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>249.037924874203</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>134.7551180445581</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,25 +25125,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>127.4895505121357</v>
       </c>
       <c r="C35" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>41.43760940271919</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25362,10 +25362,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>120.168123766492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.3081080162913</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>286.0348948128437</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.212021425713374</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>3.866209516361209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25845,13 +25845,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>89.79231049789979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>333.4150374284284</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>162.6929785335591</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>242.6756726418387</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679099.3478767683</v>
+        <v>494243.3891182223</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679099.3478767683</v>
+        <v>742735.9195252857</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679099.3478767682</v>
+        <v>742735.9195252857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679099.347876768</v>
+        <v>742735.9195252855</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="D2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.8084776439</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="F2" t="n">
-        <v>223045.8084776438</v>
+        <v>244933.9278895521</v>
       </c>
       <c r="G2" t="n">
-        <v>223045.8084776438</v>
+        <v>244933.9278895521</v>
       </c>
       <c r="H2" t="n">
-        <v>223045.8084776439</v>
+        <v>244933.9278895521</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26340,22 +26340,22 @@
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134252</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>326513.6777659223</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116924</v>
+        <v>55256.55893425991</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910626</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871077</v>
+        <v>8757.582995213663</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82704.25131371451</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>35144.55342918499</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="F4" t="n">
-        <v>35144.55342918499</v>
+        <v>35615.48645062169</v>
       </c>
       <c r="G4" t="n">
-        <v>35144.55342918498</v>
+        <v>35615.48645062169</v>
       </c>
       <c r="H4" t="n">
-        <v>35144.55342918498</v>
+        <v>35615.48645062169</v>
       </c>
       <c r="I4" t="n">
         <v>35944.74664026682</v>
@@ -26444,7 +26444,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
         <v>35944.74664026682</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730636</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730636</v>
+        <v>44420.77245688342</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730636</v>
+        <v>44420.77245688342</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730636</v>
+        <v>44420.77245688343</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25373.95242140838</v>
+        <v>-14377.74286337199</v>
       </c>
       <c r="C6" t="n">
-        <v>55395.47911013928</v>
+        <v>66391.68866817576</v>
       </c>
       <c r="D6" t="n">
-        <v>55395.47911013934</v>
+        <v>66391.68866817579</v>
       </c>
       <c r="E6" t="n">
-        <v>-145125.2000045662</v>
+        <v>68337.13342850705</v>
       </c>
       <c r="F6" t="n">
-        <v>142226.5100088589</v>
+        <v>-162307.8691647051</v>
       </c>
       <c r="G6" t="n">
-        <v>142226.510008859</v>
+        <v>164205.8086012171</v>
       </c>
       <c r="H6" t="n">
-        <v>142226.510008859</v>
+        <v>164205.8086012171</v>
       </c>
       <c r="I6" t="n">
-        <v>34704.00905299373</v>
+        <v>119197.7240016634</v>
       </c>
       <c r="J6" t="n">
-        <v>105932.7679655799</v>
+        <v>111394.3403368172</v>
       </c>
       <c r="K6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
       <c r="L6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
       <c r="M6" t="n">
-        <v>97637.09004597535</v>
+        <v>165696.6999407097</v>
       </c>
       <c r="N6" t="n">
-        <v>168992.710564686</v>
+        <v>91750.03162220884</v>
       </c>
       <c r="O6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359235</v>
       </c>
       <c r="P6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598899</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598899</v>
+        <v>325.6964302438611</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598899</v>
+        <v>325.6964302438611</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598899</v>
+        <v>325.6964302438611</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170866</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500125</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500125</v>
+        <v>613.8254979863035</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500125</v>
+        <v>613.8254979863035</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500125</v>
+        <v>613.8254979863036</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598899</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>290.6751695247358</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571968</v>
+        <v>52.04723397322556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723535</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>337.6689842839481</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.938813804543</v>
+        <v>60.46177476825198</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776592</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723535</v>
+        <v>35.14222482469648</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.668984283948</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723535</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>337.6689842839481</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929184</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686796</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008877</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523064</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549028</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601774</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372555</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102182</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449778</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819836</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721631</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832057</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745397</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609516</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042914</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730921</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896355</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632913</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881665</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142344</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286399</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026661</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973816</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258668</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092675</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057172</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661918</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304138</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922971</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227522</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507745</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768059</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644857</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933428</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>67.360921932699</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985376</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620538</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464867</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970447</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784337</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952483</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400141</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133577</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851378</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889893</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929184</v>
+        <v>13.40920026627112</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686796</v>
+        <v>50.47803669136264</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008877</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523064</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549028</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601774</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372555</v>
+        <v>233.627450410001</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102182</v>
+        <v>220.6077765276396</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2490952449778</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819836</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721632</v>
+        <v>82.2473502967073</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832057</v>
+        <v>29.83641167510346</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745398</v>
+        <v>5.731602506100509</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609516</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042914</v>
+        <v>0.7005545858075503</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730921</v>
+        <v>6.765882447141341</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896355</v>
+        <v>24.11997148504066</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632914</v>
+        <v>66.18704531965106</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881667</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142344</v>
+        <v>152.1094507473806</v>
       </c>
       <c r="M15" t="n">
-        <v>136.93370732864</v>
+        <v>177.5045544829043</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026661</v>
+        <v>182.2025718587804</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973816</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092675</v>
+        <v>89.4251783567673</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057173</v>
+        <v>43.49583647671792</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661918</v>
+        <v>13.01249417059199</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304139</v>
+        <v>2.823726598057625</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922972</v>
+        <v>0.04608911748733885</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227522</v>
+        <v>0.5873214315872904</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507745</v>
+        <v>5.221821455385186</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768059</v>
+        <v>17.66235723355234</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644858</v>
+        <v>41.52362521322143</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933429</v>
+        <v>68.23607177895973</v>
       </c>
       <c r="L16" t="n">
-        <v>67.360921932699</v>
+        <v>87.31867901980499</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985377</v>
+        <v>92.0653040441786</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620538</v>
+        <v>89.87619689008061</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464867</v>
+        <v>83.01521471199268</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970448</v>
+        <v>71.0338575076119</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784337</v>
+        <v>49.18016096682302</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952484</v>
+        <v>26.40810727846125</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400142</v>
+        <v>10.23541076684396</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133577</v>
+        <v>2.50946429860024</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.03203571445021588</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889893</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929184</v>
+        <v>13.40920026627112</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686796</v>
+        <v>50.47803669136264</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008877</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523064</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549028</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601774</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372555</v>
+        <v>233.627450410001</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102182</v>
+        <v>220.6077765276396</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449778</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819836</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721631</v>
+        <v>82.2473502967073</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832057</v>
+        <v>29.83641167510346</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745397</v>
+        <v>5.731602506100509</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609516</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042914</v>
+        <v>0.7005545858075503</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730921</v>
+        <v>6.765882447141341</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896355</v>
+        <v>24.11997148504066</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632913</v>
+        <v>66.18704531965106</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881665</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142344</v>
+        <v>152.1094507473806</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286399</v>
+        <v>177.5045544829043</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026661</v>
+        <v>182.2025718587804</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973816</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258668</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092675</v>
+        <v>89.4251783567673</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057172</v>
+        <v>43.49583647671792</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661918</v>
+        <v>13.01249417059199</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304138</v>
+        <v>2.823726598057625</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922971</v>
+        <v>0.04608911748733885</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227522</v>
+        <v>0.5873214315872904</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507745</v>
+        <v>5.221821455385186</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768059</v>
+        <v>17.66235723355234</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644857</v>
+        <v>41.52362521322143</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933428</v>
+        <v>68.23607177895973</v>
       </c>
       <c r="L19" t="n">
-        <v>67.360921932699</v>
+        <v>87.31867901980499</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985376</v>
+        <v>92.0653040441786</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620538</v>
+        <v>89.87619689008061</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464867</v>
+        <v>83.01521471199268</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970447</v>
+        <v>71.0338575076119</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784337</v>
+        <v>49.18016096682302</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952483</v>
+        <v>26.40810727846125</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400141</v>
+        <v>10.23541076684396</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133577</v>
+        <v>2.50946429860024</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851378</v>
+        <v>0.03203571445021588</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.309332382889893</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929184</v>
+        <v>13.40920026627112</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686796</v>
+        <v>50.47803669136264</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008877</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523064</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549028</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601774</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372555</v>
+        <v>233.627450410001</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102182</v>
+        <v>220.6077765276396</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449778</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819836</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721632</v>
+        <v>82.2473502967073</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832057</v>
+        <v>29.83641167510346</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745398</v>
+        <v>5.731602506100509</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609516</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042914</v>
+        <v>0.7005545858075503</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730921</v>
+        <v>6.765882447141341</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896355</v>
+        <v>24.11997148504066</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632914</v>
+        <v>66.18704531965106</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881667</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142344</v>
+        <v>152.1094507473806</v>
       </c>
       <c r="M21" t="n">
-        <v>136.93370732864</v>
+        <v>177.5045544829043</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026661</v>
+        <v>182.2025718587804</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973816</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092675</v>
+        <v>89.4251783567673</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057173</v>
+        <v>43.49583647671792</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661918</v>
+        <v>13.01249417059199</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304139</v>
+        <v>2.823726598057625</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922972</v>
+        <v>0.04608911748733885</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227522</v>
+        <v>0.5873214315872904</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507745</v>
+        <v>5.221821455385186</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768059</v>
+        <v>17.66235723355234</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644858</v>
+        <v>41.52362521322143</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933429</v>
+        <v>68.23607177895973</v>
       </c>
       <c r="L22" t="n">
-        <v>67.360921932699</v>
+        <v>87.31867901980499</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985377</v>
+        <v>92.0653040441786</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620538</v>
+        <v>89.87619689008061</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464867</v>
+        <v>83.01521471199268</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970448</v>
+        <v>71.0338575076119</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784337</v>
+        <v>49.18016096682302</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952484</v>
+        <v>26.40810727846125</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400142</v>
+        <v>10.23541076684396</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133577</v>
+        <v>2.50946429860024</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.03203571445021588</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547625</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784906</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>341.291165035366</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257372</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526487</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512768</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611909</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743883</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007127</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070363</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378194</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566216</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1303035041824</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296666</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514738</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107543</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345143</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301514</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416943</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868834</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459796</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547625</v>
+        <v>99.17865997768862</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784906</v>
+        <v>270.6075506262146</v>
       </c>
       <c r="L14" t="n">
-        <v>341.291165035366</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257372</v>
+        <v>449.0746100426748</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526487</v>
+        <v>441.5613112253942</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512768</v>
+        <v>371.3097463686983</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611909</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743884</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007128</v>
+        <v>38.8693334578629</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378194</v>
+        <v>384.3954162709656</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566216</v>
+        <v>501.0755843108859</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628864</v>
+        <v>530.2032341190006</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296666</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P15" t="n">
-        <v>6.259301392769701</v>
+        <v>318.2635610365242</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107543</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345144</v>
+        <v>45.96657995307687</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301514</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060192</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868834</v>
+        <v>107.6003426260324</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459797</v>
+        <v>68.31241677250539</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547625</v>
+        <v>99.17865997768862</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784906</v>
+        <v>270.6075506262146</v>
       </c>
       <c r="L17" t="n">
-        <v>341.291165035366</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257372</v>
+        <v>449.0746100426748</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526487</v>
+        <v>441.5613112253942</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512768</v>
+        <v>371.3097463686983</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611909</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743883</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191575</v>
+        <v>119.0966420582444</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378194</v>
+        <v>384.3954162709656</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566216</v>
+        <v>501.0755843108859</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628864</v>
+        <v>530.2032341190006</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296666</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514738</v>
+        <v>318.2635610365242</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.5206920065949</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345143</v>
+        <v>45.96657995307687</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301514</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416943</v>
+        <v>131.6491810060192</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868834</v>
+        <v>107.6003426260324</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459796</v>
+        <v>68.31241677250539</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547625</v>
+        <v>99.17865997768862</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784906</v>
+        <v>270.6075506262146</v>
       </c>
       <c r="L20" t="n">
-        <v>341.291165035366</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257372</v>
+        <v>449.0746100426748</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526487</v>
+        <v>441.5613112253942</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512768</v>
+        <v>371.3097463686983</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611909</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743884</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>119.0966420582449</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378194</v>
+        <v>384.3954162709656</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566216</v>
+        <v>501.0755843108859</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628864</v>
+        <v>530.2032341190006</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296666</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514738</v>
+        <v>318.2635610365242</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.8578402191577</v>
+        <v>159.5206920065949</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345144</v>
+        <v>45.96657995307687</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301514</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>131.6491810060192</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868834</v>
+        <v>107.6003426260324</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459797</v>
+        <v>68.31241677250539</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36679,22 +36679,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
